--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -628,6 +628,11 @@
           <t>03-10-2020</t>
         </is>
       </c>
+      <c r="S1" s="7" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -686,6 +691,9 @@
       <c r="R2" t="n">
         <v>3631</v>
       </c>
+      <c r="S2" t="n">
+        <v>3642</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -744,6 +752,9 @@
       <c r="R3" t="n">
         <v>643993</v>
       </c>
+      <c r="S3" t="n">
+        <v>651791</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -802,6 +813,9 @@
       <c r="R4" t="n">
         <v>7183</v>
       </c>
+      <c r="S4" t="n">
+        <v>7388</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,6 +874,9 @@
       <c r="R5" t="n">
         <v>148963</v>
       </c>
+      <c r="S5" t="n">
+        <v>150776</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -918,6 +935,9 @@
       <c r="R6" t="n">
         <v>172449</v>
       </c>
+      <c r="S6" t="n">
+        <v>173932</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -976,6 +996,9 @@
       <c r="R7" t="n">
         <v>10162</v>
       </c>
+      <c r="S7" t="n">
+        <v>10396</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1034,6 +1057,9 @@
       <c r="R8" t="n">
         <v>88095</v>
       </c>
+      <c r="S8" t="n">
+        <v>91077</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1092,6 +1118,9 @@
       <c r="R9" t="n">
         <v>2959</v>
       </c>
+      <c r="S9" t="n">
+        <v>2967</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1150,6 +1179,9 @@
       <c r="R10" t="n">
         <v>253784</v>
       </c>
+      <c r="S10" t="n">
+        <v>257224</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1208,6 +1240,9 @@
       <c r="R11" t="n">
         <v>29004</v>
       </c>
+      <c r="S11" t="n">
+        <v>29527</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1266,6 +1301,9 @@
       <c r="R12" t="n">
         <v>119683</v>
       </c>
+      <c r="S12" t="n">
+        <v>120987</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1324,6 +1362,9 @@
       <c r="R13" t="n">
         <v>116716</v>
       </c>
+      <c r="S13" t="n">
+        <v>118258</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1382,6 +1423,9 @@
       <c r="R14" t="n">
         <v>11996</v>
       </c>
+      <c r="S14" t="n">
+        <v>12193</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1440,6 +1484,9 @@
       <c r="R15" t="n">
         <v>59952</v>
       </c>
+      <c r="S15" t="n">
+        <v>61351</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1498,6 +1545,9 @@
       <c r="R16" t="n">
         <v>73428</v>
       </c>
+      <c r="S16" t="n">
+        <v>74604</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1556,6 +1606,9 @@
       <c r="R17" t="n">
         <v>499506</v>
       </c>
+      <c r="S17" t="n">
+        <v>508495</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1614,6 +1667,9 @@
       <c r="R18" t="n">
         <v>135144</v>
       </c>
+      <c r="S18" t="n">
+        <v>139620</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1672,6 +1728,9 @@
       <c r="R19" t="n">
         <v>3274</v>
       </c>
+      <c r="S19" t="n">
+        <v>3315</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1730,6 +1789,9 @@
       <c r="R20" t="n">
         <v>109611</v>
       </c>
+      <c r="S20" t="n">
+        <v>111712</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1788,6 +1850,9 @@
       <c r="R21" t="n">
         <v>1117720</v>
       </c>
+      <c r="S21" t="n">
+        <v>1134555</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1846,6 +1911,9 @@
       <c r="R22" t="n">
         <v>8992</v>
       </c>
+      <c r="S22" t="n">
+        <v>9081</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1904,6 +1972,9 @@
       <c r="R23" t="n">
         <v>4226</v>
       </c>
+      <c r="S23" t="n">
+        <v>4319</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1962,6 +2033,9 @@
       <c r="R24" t="n">
         <v>1759</v>
       </c>
+      <c r="S24" t="n">
+        <v>1772</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2020,6 +2094,9 @@
       <c r="R25" t="n">
         <v>5211</v>
       </c>
+      <c r="S25" t="n">
+        <v>5257</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2078,6 +2155,9 @@
       <c r="R26" t="n">
         <v>194128</v>
       </c>
+      <c r="S26" t="n">
+        <v>198194</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2136,6 +2216,9 @@
       <c r="R27" t="n">
         <v>22948</v>
       </c>
+      <c r="S27" t="n">
+        <v>23344</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2194,6 +2277,9 @@
       <c r="R28" t="n">
         <v>97777</v>
       </c>
+      <c r="S28" t="n">
+        <v>99468</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2252,6 +2338,9 @@
       <c r="R29" t="n">
         <v>117238</v>
       </c>
+      <c r="S29" t="n">
+        <v>119241</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2310,6 +2399,9 @@
       <c r="R30" t="n">
         <v>2409</v>
       </c>
+      <c r="S30" t="n">
+        <v>2448</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2368,6 +2460,9 @@
       <c r="R31" t="n">
         <v>552938</v>
       </c>
+      <c r="S31" t="n">
+        <v>558534</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2426,6 +2521,9 @@
       <c r="R32" t="n">
         <v>167846</v>
       </c>
+      <c r="S32" t="n">
+        <v>170212</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2484,6 +2582,9 @@
       <c r="R33" t="n">
         <v>20897</v>
       </c>
+      <c r="S33" t="n">
+        <v>21410</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2542,6 +2643,9 @@
       <c r="R34" t="n">
         <v>40419</v>
       </c>
+      <c r="S34" t="n">
+        <v>41338</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2600,6 +2704,9 @@
       <c r="R35" t="n">
         <v>351966</v>
       </c>
+      <c r="S35" t="n">
+        <v>356826</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2657,6 +2764,9 @@
       </c>
       <c r="R36" t="n">
         <v>231699</v>
+      </c>
+      <c r="S36" t="n">
+        <v>234712</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -633,6 +633,11 @@
           <t>04-10-2020</t>
         </is>
       </c>
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -694,6 +699,9 @@
       <c r="S2" t="n">
         <v>3642</v>
       </c>
+      <c r="T2" t="n">
+        <v>3649</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -755,6 +763,9 @@
       <c r="S3" t="n">
         <v>651791</v>
       </c>
+      <c r="T3" t="n">
+        <v>658875</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -816,6 +827,9 @@
       <c r="S4" t="n">
         <v>7388</v>
       </c>
+      <c r="T4" t="n">
+        <v>7577</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -877,6 +891,9 @@
       <c r="S5" t="n">
         <v>150776</v>
       </c>
+      <c r="T5" t="n">
+        <v>152127</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -938,6 +955,9 @@
       <c r="S6" t="n">
         <v>173932</v>
       </c>
+      <c r="T6" t="n">
+        <v>175458</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -999,6 +1019,9 @@
       <c r="S7" t="n">
         <v>10396</v>
       </c>
+      <c r="T7" t="n">
+        <v>10598</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1060,6 +1083,9 @@
       <c r="S8" t="n">
         <v>91077</v>
       </c>
+      <c r="T8" t="n">
+        <v>93731</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1121,6 +1147,9 @@
       <c r="S9" t="n">
         <v>2967</v>
       </c>
+      <c r="T9" t="n">
+        <v>2980</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1182,6 +1211,9 @@
       <c r="S10" t="n">
         <v>257224</v>
       </c>
+      <c r="T10" t="n">
+        <v>260350</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1243,6 +1275,9 @@
       <c r="S11" t="n">
         <v>29527</v>
       </c>
+      <c r="T11" t="n">
+        <v>30033</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1304,6 +1339,9 @@
       <c r="S12" t="n">
         <v>120987</v>
       </c>
+      <c r="T12" t="n">
+        <v>122233</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1365,6 +1403,9 @@
       <c r="S13" t="n">
         <v>118258</v>
       </c>
+      <c r="T13" t="n">
+        <v>120341</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1426,6 +1467,9 @@
       <c r="S14" t="n">
         <v>12193</v>
       </c>
+      <c r="T14" t="n">
+        <v>12361</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1487,6 +1531,9 @@
       <c r="S15" t="n">
         <v>61351</v>
       </c>
+      <c r="T15" t="n">
+        <v>62404</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1548,6 +1595,9 @@
       <c r="S16" t="n">
         <v>74604</v>
       </c>
+      <c r="T16" t="n">
+        <v>75531</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1609,6 +1659,9 @@
       <c r="S17" t="n">
         <v>508495</v>
       </c>
+      <c r="T17" t="n">
+        <v>515782</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1670,6 +1723,9 @@
       <c r="S18" t="n">
         <v>139620</v>
       </c>
+      <c r="T18" t="n">
+        <v>144471</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1731,6 +1787,9 @@
       <c r="S19" t="n">
         <v>3315</v>
       </c>
+      <c r="T19" t="n">
+        <v>3354</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1792,6 +1851,9 @@
       <c r="S20" t="n">
         <v>111712</v>
       </c>
+      <c r="T20" t="n">
+        <v>113832</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1853,6 +1915,9 @@
       <c r="S21" t="n">
         <v>1134555</v>
       </c>
+      <c r="T21" t="n">
+        <v>1149603</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1914,6 +1979,9 @@
       <c r="S22" t="n">
         <v>9081</v>
       </c>
+      <c r="T22" t="n">
+        <v>9205</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1975,6 +2043,9 @@
       <c r="S23" t="n">
         <v>4319</v>
       </c>
+      <c r="T23" t="n">
+        <v>4393</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2036,6 +2107,9 @@
       <c r="S24" t="n">
         <v>1772</v>
       </c>
+      <c r="T24" t="n">
+        <v>1807</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2097,6 +2171,9 @@
       <c r="S25" t="n">
         <v>5257</v>
       </c>
+      <c r="T25" t="n">
+        <v>5309</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2158,6 +2235,9 @@
       <c r="S26" t="n">
         <v>198194</v>
       </c>
+      <c r="T26" t="n">
+        <v>202302</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2219,6 +2299,9 @@
       <c r="S27" t="n">
         <v>23344</v>
       </c>
+      <c r="T27" t="n">
+        <v>23763</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2280,6 +2363,9 @@
       <c r="S28" t="n">
         <v>99468</v>
       </c>
+      <c r="T28" t="n">
+        <v>100977</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2341,6 +2427,9 @@
       <c r="S29" t="n">
         <v>119241</v>
       </c>
+      <c r="T29" t="n">
+        <v>121331</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2402,6 +2491,9 @@
       <c r="S30" t="n">
         <v>2448</v>
       </c>
+      <c r="T30" t="n">
+        <v>2480</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2463,6 +2555,9 @@
       <c r="S31" t="n">
         <v>558534</v>
       </c>
+      <c r="T31" t="n">
+        <v>564092</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2524,6 +2619,9 @@
       <c r="S32" t="n">
         <v>170212</v>
       </c>
+      <c r="T32" t="n">
+        <v>172388</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2585,6 +2683,9 @@
       <c r="S33" t="n">
         <v>21410</v>
       </c>
+      <c r="T33" t="n">
+        <v>21876</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2646,6 +2747,9 @@
       <c r="S34" t="n">
         <v>41338</v>
       </c>
+      <c r="T34" t="n">
+        <v>41740</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2707,6 +2811,9 @@
       <c r="S35" t="n">
         <v>356826</v>
       </c>
+      <c r="T35" t="n">
+        <v>362052</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2767,6 +2874,9 @@
       </c>
       <c r="S36" t="n">
         <v>234712</v>
+      </c>
+      <c r="T36" t="n">
+        <v>237698</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -638,6 +638,11 @@
           <t>05-10-2020</t>
         </is>
       </c>
+      <c r="U1" s="7" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -702,6 +707,9 @@
       <c r="T2" t="n">
         <v>3649</v>
       </c>
+      <c r="U2" t="n">
+        <v>3659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -766,6 +774,9 @@
       <c r="T3" t="n">
         <v>658875</v>
       </c>
+      <c r="U3" t="n">
+        <v>666433</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -830,6 +841,9 @@
       <c r="T4" t="n">
         <v>7577</v>
       </c>
+      <c r="U4" t="n">
+        <v>7775</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -894,6 +908,9 @@
       <c r="T5" t="n">
         <v>152127</v>
       </c>
+      <c r="U5" t="n">
+        <v>153491</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -958,6 +975,9 @@
       <c r="T6" t="n">
         <v>175458</v>
       </c>
+      <c r="U6" t="n">
+        <v>176995</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1022,6 +1042,9 @@
       <c r="T7" t="n">
         <v>10598</v>
       </c>
+      <c r="U7" t="n">
+        <v>10797</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1086,6 +1109,9 @@
       <c r="T8" t="n">
         <v>93731</v>
       </c>
+      <c r="U8" t="n">
+        <v>97067</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1150,6 +1176,9 @@
       <c r="T9" t="n">
         <v>2980</v>
       </c>
+      <c r="U9" t="n">
+        <v>2991</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1214,6 +1243,9 @@
       <c r="T10" t="n">
         <v>260350</v>
       </c>
+      <c r="U10" t="n">
+        <v>263938</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1278,6 +1310,9 @@
       <c r="T11" t="n">
         <v>30033</v>
       </c>
+      <c r="U11" t="n">
+        <v>30456</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1342,6 +1377,9 @@
       <c r="T12" t="n">
         <v>122233</v>
       </c>
+      <c r="U12" t="n">
+        <v>123638</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1406,6 +1444,9 @@
       <c r="T13" t="n">
         <v>120341</v>
       </c>
+      <c r="U13" t="n">
+        <v>121596</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1470,6 +1511,9 @@
       <c r="T14" t="n">
         <v>12361</v>
       </c>
+      <c r="U14" t="n">
+        <v>12653</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1534,6 +1578,9 @@
       <c r="T15" t="n">
         <v>62404</v>
       </c>
+      <c r="U15" t="n">
+        <v>63790</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1598,6 +1645,9 @@
       <c r="T16" t="n">
         <v>75531</v>
       </c>
+      <c r="U16" t="n">
+        <v>76843</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1662,6 +1712,9 @@
       <c r="T17" t="n">
         <v>515782</v>
       </c>
+      <c r="U17" t="n">
+        <v>522846</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1726,6 +1779,9 @@
       <c r="T18" t="n">
         <v>144471</v>
       </c>
+      <c r="U18" t="n">
+        <v>149111</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1790,6 +1846,9 @@
       <c r="T19" t="n">
         <v>3354</v>
       </c>
+      <c r="U19" t="n">
+        <v>3414</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1854,6 +1913,9 @@
       <c r="T20" t="n">
         <v>113832</v>
       </c>
+      <c r="U20" t="n">
+        <v>115878</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1918,6 +1980,9 @@
       <c r="T21" t="n">
         <v>1149603</v>
       </c>
+      <c r="U21" t="n">
+        <v>1162585</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1982,6 +2047,9 @@
       <c r="T22" t="n">
         <v>9205</v>
       </c>
+      <c r="U22" t="n">
+        <v>9334</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2046,6 +2114,9 @@
       <c r="T23" t="n">
         <v>4393</v>
       </c>
+      <c r="U23" t="n">
+        <v>4491</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2110,6 +2181,9 @@
       <c r="T24" t="n">
         <v>1807</v>
       </c>
+      <c r="U24" t="n">
+        <v>1837</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2174,6 +2248,9 @@
       <c r="T25" t="n">
         <v>5309</v>
       </c>
+      <c r="U25" t="n">
+        <v>5422</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2238,6 +2315,9 @@
       <c r="T26" t="n">
         <v>202302</v>
       </c>
+      <c r="U26" t="n">
+        <v>206400</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2302,6 +2382,9 @@
       <c r="T27" t="n">
         <v>23763</v>
       </c>
+      <c r="U27" t="n">
+        <v>24221</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2366,6 +2449,9 @@
       <c r="T28" t="n">
         <v>100977</v>
       </c>
+      <c r="U28" t="n">
+        <v>102648</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2430,6 +2516,9 @@
       <c r="T29" t="n">
         <v>121331</v>
       </c>
+      <c r="U29" t="n">
+        <v>123421</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2494,6 +2583,9 @@
       <c r="T30" t="n">
         <v>2480</v>
       </c>
+      <c r="U30" t="n">
+        <v>2547</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2558,6 +2650,9 @@
       <c r="T31" t="n">
         <v>564092</v>
       </c>
+      <c r="U31" t="n">
+        <v>569664</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2622,6 +2717,9 @@
       <c r="T32" t="n">
         <v>172388</v>
       </c>
+      <c r="U32" t="n">
+        <v>174769</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2686,6 +2784,9 @@
       <c r="T33" t="n">
         <v>21876</v>
       </c>
+      <c r="U33" t="n">
+        <v>22131</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2750,6 +2851,9 @@
       <c r="T34" t="n">
         <v>41740</v>
       </c>
+      <c r="U34" t="n">
+        <v>42621</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2814,6 +2918,9 @@
       <c r="T35" t="n">
         <v>362052</v>
       </c>
+      <c r="U35" t="n">
+        <v>366321</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2877,6 +2984,9 @@
       </c>
       <c r="T36" t="n">
         <v>237698</v>
+      </c>
+      <c r="U36" t="n">
+        <v>240707</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -643,6 +643,11 @@
           <t>06-10-2020</t>
         </is>
       </c>
+      <c r="V1" s="7" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -710,6 +715,9 @@
       <c r="U2" t="n">
         <v>3659</v>
       </c>
+      <c r="V2" t="n">
+        <v>3678</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -777,6 +785,9 @@
       <c r="U3" t="n">
         <v>666433</v>
       </c>
+      <c r="V3" t="n">
+        <v>672479</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -844,6 +855,9 @@
       <c r="U4" t="n">
         <v>7775</v>
       </c>
+      <c r="V4" t="n">
+        <v>7965</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -911,6 +925,9 @@
       <c r="U5" t="n">
         <v>153491</v>
       </c>
+      <c r="V5" t="n">
+        <v>155077</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -978,6 +995,9 @@
       <c r="U6" t="n">
         <v>176995</v>
       </c>
+      <c r="V6" t="n">
+        <v>178395</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1045,6 +1065,9 @@
       <c r="U7" t="n">
         <v>10797</v>
       </c>
+      <c r="V7" t="n">
+        <v>11035</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1112,6 +1135,9 @@
       <c r="U8" t="n">
         <v>97067</v>
       </c>
+      <c r="V8" t="n">
+        <v>100551</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1179,6 +1205,9 @@
       <c r="U9" t="n">
         <v>2991</v>
       </c>
+      <c r="V9" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1246,6 +1275,9 @@
       <c r="U10" t="n">
         <v>263938</v>
       </c>
+      <c r="V10" t="n">
+        <v>266935</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1313,6 +1345,9 @@
       <c r="U11" t="n">
         <v>30456</v>
       </c>
+      <c r="V11" t="n">
+        <v>31050</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1380,6 +1415,9 @@
       <c r="U12" t="n">
         <v>123638</v>
       </c>
+      <c r="V12" t="n">
+        <v>125111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1447,6 +1485,9 @@
       <c r="U13" t="n">
         <v>121596</v>
       </c>
+      <c r="V13" t="n">
+        <v>123286</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1514,6 +1555,9 @@
       <c r="U14" t="n">
         <v>12653</v>
       </c>
+      <c r="V14" t="n">
+        <v>12918</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1581,6 +1625,9 @@
       <c r="U15" t="n">
         <v>63790</v>
       </c>
+      <c r="V15" t="n">
+        <v>65496</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1648,6 +1695,9 @@
       <c r="U16" t="n">
         <v>76843</v>
       </c>
+      <c r="V16" t="n">
+        <v>78089</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1715,6 +1765,9 @@
       <c r="U17" t="n">
         <v>522846</v>
       </c>
+      <c r="V17" t="n">
+        <v>533074</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1782,6 +1835,9 @@
       <c r="U18" t="n">
         <v>149111</v>
       </c>
+      <c r="V18" t="n">
+        <v>154092</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1849,6 +1905,9 @@
       <c r="U19" t="n">
         <v>3414</v>
       </c>
+      <c r="V19" t="n">
+        <v>3464</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1916,6 +1975,9 @@
       <c r="U20" t="n">
         <v>115878</v>
       </c>
+      <c r="V20" t="n">
+        <v>118039</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1983,6 +2045,9 @@
       <c r="U21" t="n">
         <v>1162585</v>
       </c>
+      <c r="V21" t="n">
+        <v>1179726</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2050,6 +2115,9 @@
       <c r="U22" t="n">
         <v>9334</v>
       </c>
+      <c r="V22" t="n">
+        <v>9482</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2117,6 +2185,9 @@
       <c r="U23" t="n">
         <v>4491</v>
       </c>
+      <c r="V23" t="n">
+        <v>4606</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2184,6 +2255,9 @@
       <c r="U24" t="n">
         <v>1837</v>
       </c>
+      <c r="V24" t="n">
+        <v>1887</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2251,6 +2325,9 @@
       <c r="U25" t="n">
         <v>5422</v>
       </c>
+      <c r="V25" t="n">
+        <v>5460</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2318,6 +2395,9 @@
       <c r="U26" t="n">
         <v>206400</v>
       </c>
+      <c r="V26" t="n">
+        <v>210217</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2385,6 +2465,9 @@
       <c r="U27" t="n">
         <v>24221</v>
       </c>
+      <c r="V27" t="n">
+        <v>24614</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2452,6 +2535,9 @@
       <c r="U28" t="n">
         <v>102648</v>
       </c>
+      <c r="V28" t="n">
+        <v>104355</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2519,6 +2605,9 @@
       <c r="U29" t="n">
         <v>123421</v>
       </c>
+      <c r="V29" t="n">
+        <v>125448</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2586,6 +2675,9 @@
       <c r="U30" t="n">
         <v>2547</v>
       </c>
+      <c r="V30" t="n">
+        <v>2587</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2653,6 +2745,9 @@
       <c r="U31" t="n">
         <v>569664</v>
       </c>
+      <c r="V31" t="n">
+        <v>575212</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2720,6 +2815,9 @@
       <c r="U32" t="n">
         <v>174769</v>
       </c>
+      <c r="V32" t="n">
+        <v>177008</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2787,6 +2885,9 @@
       <c r="U33" t="n">
         <v>22131</v>
       </c>
+      <c r="V33" t="n">
+        <v>22623</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2854,6 +2955,9 @@
       <c r="U34" t="n">
         <v>42621</v>
       </c>
+      <c r="V34" t="n">
+        <v>43238</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2921,6 +3025,9 @@
       <c r="U35" t="n">
         <v>366321</v>
       </c>
+      <c r="V35" t="n">
+        <v>370753</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2987,6 +3094,9 @@
       </c>
       <c r="U36" t="n">
         <v>240707</v>
+      </c>
+      <c r="V36" t="n">
+        <v>243743</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -648,6 +648,11 @@
           <t>07-10-2020</t>
         </is>
       </c>
+      <c r="W1" s="7" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,6 +723,9 @@
       <c r="V2" t="n">
         <v>3678</v>
       </c>
+      <c r="W2" t="n">
+        <v>3696</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -788,6 +796,9 @@
       <c r="V3" t="n">
         <v>672479</v>
       </c>
+      <c r="W3" t="n">
+        <v>678828</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -858,6 +869,9 @@
       <c r="V4" t="n">
         <v>7965</v>
       </c>
+      <c r="W4" t="n">
+        <v>8396</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -928,6 +942,9 @@
       <c r="V5" t="n">
         <v>155077</v>
       </c>
+      <c r="W5" t="n">
+        <v>157638</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -998,6 +1015,9 @@
       <c r="V6" t="n">
         <v>178395</v>
       </c>
+      <c r="W6" t="n">
+        <v>179732</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1068,6 +1088,9 @@
       <c r="V7" t="n">
         <v>11035</v>
       </c>
+      <c r="W7" t="n">
+        <v>11190</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1138,6 +1161,9 @@
       <c r="V8" t="n">
         <v>100551</v>
       </c>
+      <c r="W8" t="n">
+        <v>103828</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1208,6 +1234,9 @@
       <c r="V9" t="n">
         <v>3000</v>
       </c>
+      <c r="W9" t="n">
+        <v>3010</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1278,6 +1307,9 @@
       <c r="V10" t="n">
         <v>266935</v>
       </c>
+      <c r="W10" t="n">
+        <v>270305</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1348,6 +1380,9 @@
       <c r="V11" t="n">
         <v>31050</v>
       </c>
+      <c r="W11" t="n">
+        <v>31444</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1418,6 +1453,9 @@
       <c r="V12" t="n">
         <v>125111</v>
       </c>
+      <c r="W12" t="n">
+        <v>126657</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1488,6 +1526,9 @@
       <c r="V13" t="n">
         <v>123286</v>
       </c>
+      <c r="W13" t="n">
+        <v>124841</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1558,6 +1599,9 @@
       <c r="V14" t="n">
         <v>12918</v>
       </c>
+      <c r="W14" t="n">
+        <v>13338</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1628,6 +1672,9 @@
       <c r="V15" t="n">
         <v>65496</v>
       </c>
+      <c r="W15" t="n">
+        <v>67684</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1698,6 +1745,9 @@
       <c r="V16" t="n">
         <v>78089</v>
       </c>
+      <c r="W16" t="n">
+        <v>79176</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1768,6 +1818,9 @@
       <c r="V17" t="n">
         <v>533074</v>
       </c>
+      <c r="W17" t="n">
+        <v>542906</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1838,6 +1891,9 @@
       <c r="V18" t="n">
         <v>154092</v>
       </c>
+      <c r="W18" t="n">
+        <v>160253</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1908,6 +1964,9 @@
       <c r="V19" t="n">
         <v>3464</v>
       </c>
+      <c r="W19" t="n">
+        <v>3511</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1978,6 +2037,9 @@
       <c r="V20" t="n">
         <v>118039</v>
       </c>
+      <c r="W20" t="n">
+        <v>120267</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2048,6 +2110,9 @@
       <c r="V21" t="n">
         <v>1179726</v>
       </c>
+      <c r="W21" t="n">
+        <v>1196441</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2118,6 +2183,9 @@
       <c r="V22" t="n">
         <v>9482</v>
       </c>
+      <c r="W22" t="n">
+        <v>9604</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2188,6 +2256,9 @@
       <c r="V23" t="n">
         <v>4606</v>
       </c>
+      <c r="W23" t="n">
+        <v>4694</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2258,6 +2329,9 @@
       <c r="V24" t="n">
         <v>1887</v>
       </c>
+      <c r="W24" t="n">
+        <v>1919</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2328,6 +2402,9 @@
       <c r="V25" t="n">
         <v>5460</v>
       </c>
+      <c r="W25" t="n">
+        <v>5498</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2398,6 +2475,9 @@
       <c r="V26" t="n">
         <v>210217</v>
       </c>
+      <c r="W26" t="n">
+        <v>213672</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2468,6 +2548,9 @@
       <c r="V27" t="n">
         <v>24614</v>
       </c>
+      <c r="W27" t="n">
+        <v>24930</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2538,6 +2621,9 @@
       <c r="V28" t="n">
         <v>104355</v>
       </c>
+      <c r="W28" t="n">
+        <v>105585</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2608,6 +2694,9 @@
       <c r="V29" t="n">
         <v>125448</v>
       </c>
+      <c r="W29" t="n">
+        <v>127526</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2678,6 +2767,9 @@
       <c r="V30" t="n">
         <v>2587</v>
       </c>
+      <c r="W30" t="n">
+        <v>2615</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2748,6 +2840,9 @@
       <c r="V31" t="n">
         <v>575212</v>
       </c>
+      <c r="W31" t="n">
+        <v>580736</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2818,6 +2913,9 @@
       <c r="V32" t="n">
         <v>177008</v>
       </c>
+      <c r="W32" t="n">
+        <v>179075</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2888,6 +2986,9 @@
       <c r="V33" t="n">
         <v>22623</v>
       </c>
+      <c r="W33" t="n">
+        <v>23066</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2958,6 +3059,9 @@
       <c r="V34" t="n">
         <v>43238</v>
       </c>
+      <c r="W34" t="n">
+        <v>43904</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3028,6 +3132,9 @@
       <c r="V35" t="n">
         <v>370753</v>
       </c>
+      <c r="W35" t="n">
+        <v>374972</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3097,6 +3204,9 @@
       </c>
       <c r="V36" t="n">
         <v>243743</v>
+      </c>
+      <c r="W36" t="n">
+        <v>246767</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -653,6 +653,11 @@
           <t>08-10-2020</t>
         </is>
       </c>
+      <c r="X1" s="7" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -726,6 +731,9 @@
       <c r="W2" t="n">
         <v>3696</v>
       </c>
+      <c r="X2" t="n">
+        <v>3707</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -799,6 +807,9 @@
       <c r="W3" t="n">
         <v>678828</v>
       </c>
+      <c r="X3" t="n">
+        <v>684930</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -872,6 +883,9 @@
       <c r="W4" t="n">
         <v>8396</v>
       </c>
+      <c r="X4" t="n">
+        <v>8679</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -945,6 +959,9 @@
       <c r="W5" t="n">
         <v>157638</v>
       </c>
+      <c r="X5" t="n">
+        <v>159836</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1018,6 +1035,9 @@
       <c r="W6" t="n">
         <v>179732</v>
       </c>
+      <c r="X6" t="n">
+        <v>180696</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1091,6 +1111,9 @@
       <c r="W7" t="n">
         <v>11190</v>
       </c>
+      <c r="X7" t="n">
+        <v>11344</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1164,6 +1187,9 @@
       <c r="W8" t="n">
         <v>103828</v>
       </c>
+      <c r="X8" t="n">
+        <v>106027</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1237,6 +1263,9 @@
       <c r="W9" t="n">
         <v>3010</v>
       </c>
+      <c r="X9" t="n">
+        <v>3025</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1310,6 +1339,9 @@
       <c r="W10" t="n">
         <v>270305</v>
       </c>
+      <c r="X10" t="n">
+        <v>272948</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1383,6 +1415,9 @@
       <c r="W11" t="n">
         <v>31444</v>
       </c>
+      <c r="X11" t="n">
+        <v>31902</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1456,6 +1491,9 @@
       <c r="W12" t="n">
         <v>126657</v>
       </c>
+      <c r="X12" t="n">
+        <v>127786</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1529,6 +1567,9 @@
       <c r="W13" t="n">
         <v>124841</v>
       </c>
+      <c r="X13" t="n">
+        <v>126267</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1602,6 +1643,9 @@
       <c r="W14" t="n">
         <v>13338</v>
       </c>
+      <c r="X14" t="n">
+        <v>13597</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1675,6 +1719,9 @@
       <c r="W15" t="n">
         <v>67684</v>
       </c>
+      <c r="X15" t="n">
+        <v>69020</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1748,6 +1795,9 @@
       <c r="W16" t="n">
         <v>79176</v>
       </c>
+      <c r="X16" t="n">
+        <v>80439</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1821,6 +1871,9 @@
       <c r="W17" t="n">
         <v>542906</v>
       </c>
+      <c r="X17" t="n">
+        <v>552519</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1894,6 +1947,9 @@
       <c r="W18" t="n">
         <v>160253</v>
       </c>
+      <c r="X18" t="n">
+        <v>167256</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1967,6 +2023,9 @@
       <c r="W19" t="n">
         <v>3511</v>
       </c>
+      <c r="X19" t="n">
+        <v>3540</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2040,6 +2099,9 @@
       <c r="W20" t="n">
         <v>120267</v>
       </c>
+      <c r="X20" t="n">
+        <v>122687</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2113,6 +2175,9 @@
       <c r="W21" t="n">
         <v>1196441</v>
       </c>
+      <c r="X21" t="n">
+        <v>1212016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2186,6 +2251,9 @@
       <c r="W22" t="n">
         <v>9604</v>
       </c>
+      <c r="X22" t="n">
+        <v>9719</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2259,6 +2327,9 @@
       <c r="W23" t="n">
         <v>4694</v>
       </c>
+      <c r="X23" t="n">
+        <v>4832</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2332,6 +2403,9 @@
       <c r="W24" t="n">
         <v>1919</v>
       </c>
+      <c r="X24" t="n">
+        <v>1937</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2405,6 +2479,9 @@
       <c r="W25" t="n">
         <v>5498</v>
       </c>
+      <c r="X25" t="n">
+        <v>5564</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2478,6 +2555,9 @@
       <c r="W26" t="n">
         <v>213672</v>
       </c>
+      <c r="X26" t="n">
+        <v>216984</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2551,6 +2631,9 @@
       <c r="W27" t="n">
         <v>24930</v>
       </c>
+      <c r="X27" t="n">
+        <v>25256</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2624,6 +2707,9 @@
       <c r="W28" t="n">
         <v>105585</v>
       </c>
+      <c r="X28" t="n">
+        <v>107200</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2697,6 +2783,9 @@
       <c r="W29" t="n">
         <v>127526</v>
       </c>
+      <c r="X29" t="n">
+        <v>129618</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2770,6 +2859,9 @@
       <c r="W30" t="n">
         <v>2615</v>
       </c>
+      <c r="X30" t="n">
+        <v>2650</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2843,6 +2935,9 @@
       <c r="W31" t="n">
         <v>580736</v>
       </c>
+      <c r="X31" t="n">
+        <v>586454</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2916,6 +3011,9 @@
       <c r="W32" t="n">
         <v>179075</v>
       </c>
+      <c r="X32" t="n">
+        <v>180953</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2989,6 +3087,9 @@
       <c r="W33" t="n">
         <v>23066</v>
       </c>
+      <c r="X33" t="n">
+        <v>23474</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3062,6 +3163,9 @@
       <c r="W34" t="n">
         <v>43904</v>
       </c>
+      <c r="X34" t="n">
+        <v>44808</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3135,6 +3239,9 @@
       <c r="W35" t="n">
         <v>374972</v>
       </c>
+      <c r="X35" t="n">
+        <v>378662</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3207,6 +3314,9 @@
       </c>
       <c r="W36" t="n">
         <v>246767</v>
+      </c>
+      <c r="X36" t="n">
+        <v>249737</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -658,6 +658,11 @@
           <t>09-10-2020</t>
         </is>
       </c>
+      <c r="Y1" s="7" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -734,6 +739,9 @@
       <c r="X2" t="n">
         <v>3707</v>
       </c>
+      <c r="Y2" t="n">
+        <v>3724</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -810,6 +818,9 @@
       <c r="X3" t="n">
         <v>684930</v>
       </c>
+      <c r="Y3" t="n">
+        <v>691040</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -886,6 +897,9 @@
       <c r="X4" t="n">
         <v>8679</v>
       </c>
+      <c r="Y4" t="n">
+        <v>8877</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -962,6 +976,9 @@
       <c r="X5" t="n">
         <v>159836</v>
       </c>
+      <c r="Y5" t="n">
+        <v>161904</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1038,6 +1055,9 @@
       <c r="X6" t="n">
         <v>180696</v>
       </c>
+      <c r="Y6" t="n">
+        <v>182121</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1114,6 +1134,9 @@
       <c r="X7" t="n">
         <v>11344</v>
       </c>
+      <c r="Y7" t="n">
+        <v>11505</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1190,6 +1213,9 @@
       <c r="X8" t="n">
         <v>106027</v>
       </c>
+      <c r="Y8" t="n">
+        <v>108935</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1266,6 +1292,9 @@
       <c r="X9" t="n">
         <v>3025</v>
       </c>
+      <c r="Y9" t="n">
+        <v>3037</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1342,6 +1371,9 @@
       <c r="X10" t="n">
         <v>272948</v>
       </c>
+      <c r="Y10" t="n">
+        <v>276046</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1418,6 +1450,9 @@
       <c r="X11" t="n">
         <v>31902</v>
       </c>
+      <c r="Y11" t="n">
+        <v>32317</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1494,6 +1529,9 @@
       <c r="X12" t="n">
         <v>127786</v>
       </c>
+      <c r="Y12" t="n">
+        <v>129304</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1570,6 +1608,9 @@
       <c r="X13" t="n">
         <v>126267</v>
       </c>
+      <c r="Y13" t="n">
+        <v>127540</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1646,6 +1687,9 @@
       <c r="X14" t="n">
         <v>13597</v>
       </c>
+      <c r="Y14" t="n">
+        <v>13876</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1722,6 +1766,9 @@
       <c r="X15" t="n">
         <v>69020</v>
       </c>
+      <c r="Y15" t="n">
+        <v>69979</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1798,6 +1845,9 @@
       <c r="X16" t="n">
         <v>80439</v>
       </c>
+      <c r="Y16" t="n">
+        <v>81654</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1874,6 +1924,9 @@
       <c r="X17" t="n">
         <v>552519</v>
       </c>
+      <c r="Y17" t="n">
+        <v>561610</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1950,6 +2003,9 @@
       <c r="X18" t="n">
         <v>167256</v>
       </c>
+      <c r="Y18" t="n">
+        <v>175304</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2026,6 +2082,9 @@
       <c r="X19" t="n">
         <v>3540</v>
       </c>
+      <c r="Y19" t="n">
+        <v>3886</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2102,6 +2161,9 @@
       <c r="X20" t="n">
         <v>122687</v>
       </c>
+      <c r="Y20" t="n">
+        <v>124887</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2178,6 +2240,9 @@
       <c r="X21" t="n">
         <v>1212016</v>
       </c>
+      <c r="Y21" t="n">
+        <v>1229339</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2254,6 +2319,9 @@
       <c r="X22" t="n">
         <v>9719</v>
       </c>
+      <c r="Y22" t="n">
+        <v>9866</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2330,6 +2398,9 @@
       <c r="X23" t="n">
         <v>4832</v>
       </c>
+      <c r="Y23" t="n">
+        <v>4903</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2406,6 +2477,9 @@
       <c r="X24" t="n">
         <v>1937</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1974</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2482,6 +2556,9 @@
       <c r="X25" t="n">
         <v>5564</v>
       </c>
+      <c r="Y25" t="n">
+        <v>5656</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2558,6 +2635,9 @@
       <c r="X26" t="n">
         <v>216984</v>
       </c>
+      <c r="Y26" t="n">
+        <v>220388</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2634,6 +2714,9 @@
       <c r="X27" t="n">
         <v>25256</v>
       </c>
+      <c r="Y27" t="n">
+        <v>25543</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2710,6 +2793,9 @@
       <c r="X28" t="n">
         <v>107200</v>
       </c>
+      <c r="Y28" t="n">
+        <v>108533</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2786,6 +2872,9 @@
       <c r="X29" t="n">
         <v>129618</v>
       </c>
+      <c r="Y29" t="n">
+        <v>131766</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2862,6 +2951,9 @@
       <c r="X30" t="n">
         <v>2650</v>
       </c>
+      <c r="Y30" t="n">
+        <v>2721</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2938,6 +3030,9 @@
       <c r="X31" t="n">
         <v>586454</v>
       </c>
+      <c r="Y31" t="n">
+        <v>591811</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3014,6 +3109,9 @@
       <c r="X32" t="n">
         <v>180953</v>
       </c>
+      <c r="Y32" t="n">
+        <v>183025</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3090,6 +3188,9 @@
       <c r="X33" t="n">
         <v>23474</v>
       </c>
+      <c r="Y33" t="n">
+        <v>23801</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3166,6 +3267,9 @@
       <c r="X34" t="n">
         <v>44808</v>
       </c>
+      <c r="Y34" t="n">
+        <v>46058</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3242,6 +3346,9 @@
       <c r="X35" t="n">
         <v>378662</v>
       </c>
+      <c r="Y35" t="n">
+        <v>383086</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3317,6 +3424,9 @@
       </c>
       <c r="X36" t="n">
         <v>249737</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>252806</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -663,6 +663,11 @@
           <t>10-10-2020</t>
         </is>
       </c>
+      <c r="Z1" s="7" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -742,6 +747,9 @@
       <c r="Y2" t="n">
         <v>3724</v>
       </c>
+      <c r="Z2" t="n">
+        <v>3744</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -821,6 +829,9 @@
       <c r="Y3" t="n">
         <v>691040</v>
       </c>
+      <c r="Z3" t="n">
+        <v>697699</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -900,6 +911,9 @@
       <c r="Y4" t="n">
         <v>8877</v>
       </c>
+      <c r="Z4" t="n">
+        <v>9035</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -979,6 +993,9 @@
       <c r="Y5" t="n">
         <v>161904</v>
       </c>
+      <c r="Z5" t="n">
+        <v>163355</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1058,6 +1075,9 @@
       <c r="Y6" t="n">
         <v>182121</v>
       </c>
+      <c r="Z6" t="n">
+        <v>183390</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1137,6 +1157,9 @@
       <c r="Y7" t="n">
         <v>11505</v>
       </c>
+      <c r="Z7" t="n">
+        <v>11662</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1216,6 +1239,9 @@
       <c r="Y8" t="n">
         <v>108935</v>
       </c>
+      <c r="Z8" t="n">
+        <v>111654</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1295,6 +1321,9 @@
       <c r="Y9" t="n">
         <v>3037</v>
       </c>
+      <c r="Z9" t="n">
+        <v>3050</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1374,6 +1403,9 @@
       <c r="Y10" t="n">
         <v>276046</v>
       </c>
+      <c r="Z10" t="n">
+        <v>278812</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1453,6 +1485,9 @@
       <c r="Y11" t="n">
         <v>32317</v>
       </c>
+      <c r="Z11" t="n">
+        <v>32777</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1532,6 +1567,9 @@
       <c r="Y12" t="n">
         <v>129304</v>
       </c>
+      <c r="Z12" t="n">
+        <v>130760</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1611,6 +1649,9 @@
       <c r="Y13" t="n">
         <v>127540</v>
       </c>
+      <c r="Z13" t="n">
+        <v>128841</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1690,6 +1731,9 @@
       <c r="Y14" t="n">
         <v>13876</v>
       </c>
+      <c r="Z14" t="n">
+        <v>14278</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1769,6 +1813,9 @@
       <c r="Y15" t="n">
         <v>69979</v>
       </c>
+      <c r="Z15" t="n">
+        <v>70955</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1848,6 +1895,9 @@
       <c r="Y16" t="n">
         <v>81654</v>
       </c>
+      <c r="Z16" t="n">
+        <v>82805</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1927,6 +1977,9 @@
       <c r="Y17" t="n">
         <v>561610</v>
       </c>
+      <c r="Z17" t="n">
+        <v>569947</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2006,6 +2059,9 @@
       <c r="Y18" t="n">
         <v>175304</v>
       </c>
+      <c r="Z18" t="n">
+        <v>182874</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2085,6 +2141,9 @@
       <c r="Y19" t="n">
         <v>3886</v>
       </c>
+      <c r="Z19" t="n">
+        <v>3973</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2164,6 +2223,9 @@
       <c r="Y20" t="n">
         <v>124887</v>
       </c>
+      <c r="Z20" t="n">
+        <v>127034</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2243,6 +2305,9 @@
       <c r="Y21" t="n">
         <v>1229339</v>
       </c>
+      <c r="Z21" t="n">
+        <v>1255779</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2322,6 +2387,9 @@
       <c r="Y22" t="n">
         <v>9866</v>
       </c>
+      <c r="Z22" t="n">
+        <v>10396</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2401,6 +2469,9 @@
       <c r="Y23" t="n">
         <v>4903</v>
       </c>
+      <c r="Z23" t="n">
+        <v>5045</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2480,6 +2551,9 @@
       <c r="Y24" t="n">
         <v>1974</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2559,6 +2633,9 @@
       <c r="Y25" t="n">
         <v>5656</v>
       </c>
+      <c r="Z25" t="n">
+        <v>5694</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2638,6 +2715,9 @@
       <c r="Y26" t="n">
         <v>220388</v>
       </c>
+      <c r="Z26" t="n">
+        <v>224273</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2717,6 +2797,9 @@
       <c r="Y27" t="n">
         <v>25543</v>
       </c>
+      <c r="Z27" t="n">
+        <v>25955</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2796,6 +2879,9 @@
       <c r="Y28" t="n">
         <v>108533</v>
       </c>
+      <c r="Z28" t="n">
+        <v>109767</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2875,6 +2961,9 @@
       <c r="Y29" t="n">
         <v>131766</v>
       </c>
+      <c r="Z29" t="n">
+        <v>133918</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2954,6 +3043,9 @@
       <c r="Y30" t="n">
         <v>2721</v>
       </c>
+      <c r="Z30" t="n">
+        <v>2816</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3033,6 +3125,9 @@
       <c r="Y31" t="n">
         <v>591811</v>
       </c>
+      <c r="Z31" t="n">
+        <v>597033</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3112,6 +3207,9 @@
       <c r="Y32" t="n">
         <v>183025</v>
       </c>
+      <c r="Z32" t="n">
+        <v>185128</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3191,6 +3289,9 @@
       <c r="Y33" t="n">
         <v>23801</v>
       </c>
+      <c r="Z33" t="n">
+        <v>24086</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3270,6 +3371,9 @@
       <c r="Y34" t="n">
         <v>46058</v>
       </c>
+      <c r="Z34" t="n">
+        <v>46470</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3349,6 +3453,9 @@
       <c r="Y35" t="n">
         <v>383086</v>
       </c>
+      <c r="Z35" t="n">
+        <v>387149</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3427,6 +3534,9 @@
       </c>
       <c r="Y36" t="n">
         <v>252806</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>255838</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -668,6 +668,11 @@
           <t>11-10-2020</t>
         </is>
       </c>
+      <c r="AA1" s="7" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -750,6 +755,9 @@
       <c r="Z2" t="n">
         <v>3744</v>
       </c>
+      <c r="AA2" t="n">
+        <v>3764</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -832,6 +840,9 @@
       <c r="Z3" t="n">
         <v>697699</v>
       </c>
+      <c r="AA3" t="n">
+        <v>703208</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -914,6 +925,9 @@
       <c r="Z4" t="n">
         <v>9035</v>
       </c>
+      <c r="AA4" t="n">
+        <v>9232</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -996,6 +1010,9 @@
       <c r="Z5" t="n">
         <v>163355</v>
       </c>
+      <c r="AA5" t="n">
+        <v>164582</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1078,6 +1095,9 @@
       <c r="Z6" t="n">
         <v>183390</v>
       </c>
+      <c r="AA6" t="n">
+        <v>184541</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1160,6 +1180,9 @@
       <c r="Z7" t="n">
         <v>11662</v>
       </c>
+      <c r="AA7" t="n">
+        <v>11787</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1242,6 +1265,9 @@
       <c r="Z8" t="n">
         <v>111654</v>
       </c>
+      <c r="AA8" t="n">
+        <v>113771</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1324,6 +1350,9 @@
       <c r="Z9" t="n">
         <v>3050</v>
       </c>
+      <c r="AA9" t="n">
+        <v>3059</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1406,6 +1435,9 @@
       <c r="Z10" t="n">
         <v>278812</v>
       </c>
+      <c r="AA10" t="n">
+        <v>281869</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1488,6 +1520,9 @@
       <c r="Z11" t="n">
         <v>32777</v>
       </c>
+      <c r="AA11" t="n">
+        <v>33203</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1570,6 +1605,9 @@
       <c r="Z12" t="n">
         <v>130760</v>
       </c>
+      <c r="AA12" t="n">
+        <v>132173</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1652,6 +1690,9 @@
       <c r="Z13" t="n">
         <v>128841</v>
       </c>
+      <c r="AA13" t="n">
+        <v>130003</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1734,6 +1775,9 @@
       <c r="Z14" t="n">
         <v>14278</v>
       </c>
+      <c r="AA14" t="n">
+        <v>14471</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1816,6 +1860,9 @@
       <c r="Z15" t="n">
         <v>70955</v>
       </c>
+      <c r="AA15" t="n">
+        <v>71845</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1898,6 +1945,9 @@
       <c r="Z16" t="n">
         <v>82805</v>
       </c>
+      <c r="AA16" t="n">
+        <v>83571</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1980,6 +2030,9 @@
       <c r="Z17" t="n">
         <v>569947</v>
       </c>
+      <c r="AA17" t="n">
+        <v>580054</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2062,6 +2115,9 @@
       <c r="Z18" t="n">
         <v>182874</v>
       </c>
+      <c r="AA18" t="n">
+        <v>191798</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2144,6 +2200,9 @@
       <c r="Z19" t="n">
         <v>3973</v>
       </c>
+      <c r="AA19" t="n">
+        <v>4037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2226,6 +2285,9 @@
       <c r="Z20" t="n">
         <v>127034</v>
       </c>
+      <c r="AA20" t="n">
+        <v>129019</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2308,6 +2370,9 @@
       <c r="Z21" t="n">
         <v>1255779</v>
       </c>
+      <c r="AA21" t="n">
+        <v>1266240</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2390,6 +2455,9 @@
       <c r="Z22" t="n">
         <v>10396</v>
       </c>
+      <c r="AA22" t="n">
+        <v>10504</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2472,6 +2540,9 @@
       <c r="Z23" t="n">
         <v>5045</v>
       </c>
+      <c r="AA23" t="n">
+        <v>5142</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2554,6 +2625,9 @@
       <c r="Z24" t="n">
         <v>1984</v>
       </c>
+      <c r="AA24" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2636,6 +2710,9 @@
       <c r="Z25" t="n">
         <v>5694</v>
       </c>
+      <c r="AA25" t="n">
+        <v>5743</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2718,6 +2795,9 @@
       <c r="Z26" t="n">
         <v>224273</v>
       </c>
+      <c r="AA26" t="n">
+        <v>227615</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2800,6 +2880,9 @@
       <c r="Z27" t="n">
         <v>25955</v>
       </c>
+      <c r="AA27" t="n">
+        <v>26291</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2882,6 +2965,9 @@
       <c r="Z28" t="n">
         <v>109767</v>
       </c>
+      <c r="AA28" t="n">
+        <v>110865</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2964,6 +3050,9 @@
       <c r="Z29" t="n">
         <v>133918</v>
       </c>
+      <c r="AA29" t="n">
+        <v>135990</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3046,6 +3135,9 @@
       <c r="Z30" t="n">
         <v>2816</v>
       </c>
+      <c r="AA30" t="n">
+        <v>2920</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3128,6 +3220,9 @@
       <c r="Z31" t="n">
         <v>597033</v>
       </c>
+      <c r="AA31" t="n">
+        <v>602038</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3210,6 +3305,9 @@
       <c r="Z32" t="n">
         <v>185128</v>
       </c>
+      <c r="AA32" t="n">
+        <v>187342</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3292,6 +3390,9 @@
       <c r="Z33" t="n">
         <v>24086</v>
       </c>
+      <c r="AA33" t="n">
+        <v>24403</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3374,6 +3475,9 @@
       <c r="Z34" t="n">
         <v>46470</v>
       </c>
+      <c r="AA34" t="n">
+        <v>46931</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3456,6 +3560,9 @@
       <c r="Z35" t="n">
         <v>387149</v>
       </c>
+      <c r="AA35" t="n">
+        <v>390566</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3537,6 +3644,9 @@
       </c>
       <c r="Z36" t="n">
         <v>255838</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>258948</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -673,6 +673,11 @@
           <t>12-10-2020</t>
         </is>
       </c>
+      <c r="AB1" s="7" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -758,6 +763,9 @@
       <c r="AA2" t="n">
         <v>3764</v>
       </c>
+      <c r="AB2" t="n">
+        <v>3770</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -843,6 +851,9 @@
       <c r="AA3" t="n">
         <v>703208</v>
       </c>
+      <c r="AB3" t="n">
+        <v>708712</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -928,6 +939,9 @@
       <c r="AA4" t="n">
         <v>9232</v>
       </c>
+      <c r="AB4" t="n">
+        <v>9403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1013,6 +1027,9 @@
       <c r="AA5" t="n">
         <v>164582</v>
       </c>
+      <c r="AB5" t="n">
+        <v>166039</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1098,6 +1115,9 @@
       <c r="AA6" t="n">
         <v>184541</v>
       </c>
+      <c r="AB6" t="n">
+        <v>185911</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1183,6 +1203,9 @@
       <c r="AA7" t="n">
         <v>11787</v>
       </c>
+      <c r="AB7" t="n">
+        <v>11898</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1268,6 +1291,9 @@
       <c r="AA8" t="n">
         <v>113771</v>
       </c>
+      <c r="AB8" t="n">
+        <v>116540</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1353,6 +1379,9 @@
       <c r="AA9" t="n">
         <v>3059</v>
       </c>
+      <c r="AB9" t="n">
+        <v>3064</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1438,6 +1467,9 @@
       <c r="AA10" t="n">
         <v>281869</v>
       </c>
+      <c r="AB10" t="n">
+        <v>284844</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1523,6 +1555,9 @@
       <c r="AA11" t="n">
         <v>33203</v>
       </c>
+      <c r="AB11" t="n">
+        <v>33698</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1608,6 +1643,9 @@
       <c r="AA12" t="n">
         <v>132173</v>
       </c>
+      <c r="AB12" t="n">
+        <v>133615</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1693,6 +1731,9 @@
       <c r="AA13" t="n">
         <v>130003</v>
       </c>
+      <c r="AB13" t="n">
+        <v>131228</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1778,6 +1819,9 @@
       <c r="AA14" t="n">
         <v>14471</v>
       </c>
+      <c r="AB14" t="n">
+        <v>14690</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1863,6 +1907,9 @@
       <c r="AA15" t="n">
         <v>71845</v>
       </c>
+      <c r="AB15" t="n">
+        <v>72706</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1948,6 +1995,9 @@
       <c r="AA16" t="n">
         <v>83571</v>
       </c>
+      <c r="AB16" t="n">
+        <v>84461</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2033,6 +2083,9 @@
       <c r="AA17" t="n">
         <v>580054</v>
       </c>
+      <c r="AB17" t="n">
+        <v>592084</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2118,6 +2171,9 @@
       <c r="AA18" t="n">
         <v>191798</v>
       </c>
+      <c r="AB18" t="n">
+        <v>199634</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2203,6 +2259,9 @@
       <c r="AA19" t="n">
         <v>4037</v>
       </c>
+      <c r="AB19" t="n">
+        <v>4126</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2288,6 +2347,9 @@
       <c r="AA20" t="n">
         <v>129019</v>
       </c>
+      <c r="AB20" t="n">
+        <v>130721</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2373,6 +2435,9 @@
       <c r="AA21" t="n">
         <v>1266240</v>
       </c>
+      <c r="AB21" t="n">
+        <v>1281896</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2458,6 +2523,9 @@
       <c r="AA22" t="n">
         <v>10504</v>
       </c>
+      <c r="AB22" t="n">
+        <v>10707</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2543,6 +2611,9 @@
       <c r="AA23" t="n">
         <v>5142</v>
       </c>
+      <c r="AB23" t="n">
+        <v>5273</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2628,6 +2699,9 @@
       <c r="AA24" t="n">
         <v>2010</v>
       </c>
+      <c r="AB24" t="n">
+        <v>2046</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2713,6 +2787,9 @@
       <c r="AA25" t="n">
         <v>5743</v>
       </c>
+      <c r="AB25" t="n">
+        <v>5813</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2798,6 +2875,9 @@
       <c r="AA26" t="n">
         <v>227615</v>
       </c>
+      <c r="AB26" t="n">
+        <v>230192</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2883,6 +2963,9 @@
       <c r="AA27" t="n">
         <v>26291</v>
       </c>
+      <c r="AB27" t="n">
+        <v>26555</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2968,6 +3051,9 @@
       <c r="AA28" t="n">
         <v>110865</v>
       </c>
+      <c r="AB28" t="n">
+        <v>112099</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3053,6 +3139,9 @@
       <c r="AA29" t="n">
         <v>135990</v>
       </c>
+      <c r="AB29" t="n">
+        <v>137848</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3138,6 +3227,9 @@
       <c r="AA30" t="n">
         <v>2920</v>
       </c>
+      <c r="AB30" t="n">
+        <v>2925</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3223,6 +3315,9 @@
       <c r="AA31" t="n">
         <v>602038</v>
       </c>
+      <c r="AB31" t="n">
+        <v>607203</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3308,6 +3403,9 @@
       <c r="AA32" t="n">
         <v>187342</v>
       </c>
+      <c r="AB32" t="n">
+        <v>189351</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3393,6 +3491,9 @@
       <c r="AA33" t="n">
         <v>24403</v>
       </c>
+      <c r="AB33" t="n">
+        <v>24623</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3478,6 +3579,9 @@
       <c r="AA34" t="n">
         <v>46931</v>
       </c>
+      <c r="AB34" t="n">
+        <v>47609</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3563,6 +3667,9 @@
       <c r="AA35" t="n">
         <v>390566</v>
       </c>
+      <c r="AB35" t="n">
+        <v>393908</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3647,6 +3754,9 @@
       </c>
       <c r="AA36" t="n">
         <v>258948</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>262103</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -678,6 +678,11 @@
           <t>13-10-2020</t>
         </is>
       </c>
+      <c r="AC1" s="7" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -766,6 +771,9 @@
       <c r="AB2" t="n">
         <v>3770</v>
       </c>
+      <c r="AC2" t="n">
+        <v>3782</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -854,6 +862,9 @@
       <c r="AB3" t="n">
         <v>708712</v>
       </c>
+      <c r="AC3" t="n">
+        <v>714427</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -942,6 +953,9 @@
       <c r="AB4" t="n">
         <v>9403</v>
       </c>
+      <c r="AC4" t="n">
+        <v>9573</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1030,6 +1044,9 @@
       <c r="AB5" t="n">
         <v>166039</v>
       </c>
+      <c r="AC5" t="n">
+        <v>167059</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1118,6 +1135,9 @@
       <c r="AB6" t="n">
         <v>185911</v>
       </c>
+      <c r="AC6" t="n">
+        <v>187059</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1206,6 +1226,9 @@
       <c r="AB7" t="n">
         <v>11898</v>
       </c>
+      <c r="AC7" t="n">
+        <v>12007</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1294,6 +1317,9 @@
       <c r="AB8" t="n">
         <v>116540</v>
       </c>
+      <c r="AC8" t="n">
+        <v>119352</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1382,6 +1408,9 @@
       <c r="AB9" t="n">
         <v>3064</v>
       </c>
+      <c r="AC9" t="n">
+        <v>3081</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1470,6 +1499,9 @@
       <c r="AB10" t="n">
         <v>284844</v>
       </c>
+      <c r="AC10" t="n">
+        <v>286880</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1558,6 +1590,9 @@
       <c r="AB11" t="n">
         <v>33698</v>
       </c>
+      <c r="AC11" t="n">
+        <v>34252</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1646,6 +1681,9 @@
       <c r="AB12" t="n">
         <v>133615</v>
       </c>
+      <c r="AC12" t="n">
+        <v>134990</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1734,6 +1772,9 @@
       <c r="AB13" t="n">
         <v>131228</v>
       </c>
+      <c r="AC13" t="n">
+        <v>132382</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1822,6 +1863,9 @@
       <c r="AB14" t="n">
         <v>14690</v>
       </c>
+      <c r="AC14" t="n">
+        <v>15001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1910,6 +1954,9 @@
       <c r="AB15" t="n">
         <v>72706</v>
       </c>
+      <c r="AC15" t="n">
+        <v>73502</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1998,6 +2045,9 @@
       <c r="AB16" t="n">
         <v>84461</v>
       </c>
+      <c r="AC16" t="n">
+        <v>85314</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2086,6 +2136,9 @@
       <c r="AB17" t="n">
         <v>592084</v>
       </c>
+      <c r="AC17" t="n">
+        <v>602505</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2174,6 +2227,9 @@
       <c r="AB18" t="n">
         <v>199634</v>
       </c>
+      <c r="AC18" t="n">
+        <v>207357</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2262,6 +2318,9 @@
       <c r="AB19" t="n">
         <v>4126</v>
       </c>
+      <c r="AC19" t="n">
+        <v>4205</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2350,6 +2409,9 @@
       <c r="AB20" t="n">
         <v>130721</v>
       </c>
+      <c r="AC20" t="n">
+        <v>132429</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2438,6 +2500,9 @@
       <c r="AB21" t="n">
         <v>1281896</v>
       </c>
+      <c r="AC21" t="n">
+        <v>1297252</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2526,6 +2591,9 @@
       <c r="AB22" t="n">
         <v>10707</v>
       </c>
+      <c r="AC22" t="n">
+        <v>10829</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2614,6 +2682,9 @@
       <c r="AB23" t="n">
         <v>5273</v>
       </c>
+      <c r="AC23" t="n">
+        <v>5406</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2702,6 +2773,9 @@
       <c r="AB24" t="n">
         <v>2046</v>
       </c>
+      <c r="AC24" t="n">
+        <v>2093</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2790,6 +2864,9 @@
       <c r="AB25" t="n">
         <v>5813</v>
       </c>
+      <c r="AC25" t="n">
+        <v>5831</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2878,6 +2955,9 @@
       <c r="AB26" t="n">
         <v>230192</v>
       </c>
+      <c r="AC26" t="n">
+        <v>232988</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2966,6 +3046,9 @@
       <c r="AB27" t="n">
         <v>26555</v>
       </c>
+      <c r="AC27" t="n">
+        <v>26865</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3054,6 +3137,9 @@
       <c r="AB28" t="n">
         <v>112099</v>
       </c>
+      <c r="AC28" t="n">
+        <v>113105</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3142,6 +3228,9 @@
       <c r="AB29" t="n">
         <v>137848</v>
       </c>
+      <c r="AC29" t="n">
+        <v>139616</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3230,6 +3319,9 @@
       <c r="AB30" t="n">
         <v>2925</v>
       </c>
+      <c r="AC30" t="n">
+        <v>3014</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3318,6 +3410,9 @@
       <c r="AB31" t="n">
         <v>607203</v>
       </c>
+      <c r="AC31" t="n">
+        <v>612320</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3406,6 +3501,9 @@
       <c r="AB32" t="n">
         <v>189351</v>
       </c>
+      <c r="AC32" t="n">
+        <v>191269</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3494,6 +3592,9 @@
       <c r="AB33" t="n">
         <v>24623</v>
       </c>
+      <c r="AC33" t="n">
+        <v>25041</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3582,6 +3683,9 @@
       <c r="AB34" t="n">
         <v>47609</v>
       </c>
+      <c r="AC34" t="n">
+        <v>48283</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3670,6 +3774,9 @@
       <c r="AB35" t="n">
         <v>393908</v>
       </c>
+      <c r="AC35" t="n">
+        <v>397570</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3757,6 +3864,9 @@
       </c>
       <c r="AB36" t="n">
         <v>262103</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>265288</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -683,6 +683,11 @@
           <t>14-10-2020</t>
         </is>
       </c>
+      <c r="AD1" s="7" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -774,6 +779,9 @@
       <c r="AC2" t="n">
         <v>3782</v>
       </c>
+      <c r="AD2" t="n">
+        <v>3796</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -865,6 +873,9 @@
       <c r="AC3" t="n">
         <v>714427</v>
       </c>
+      <c r="AD3" t="n">
+        <v>719477</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -956,6 +967,9 @@
       <c r="AC4" t="n">
         <v>9573</v>
       </c>
+      <c r="AD4" t="n">
+        <v>9694</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1047,6 +1061,9 @@
       <c r="AC5" t="n">
         <v>167059</v>
       </c>
+      <c r="AD5" t="n">
+        <v>168072</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1138,6 +1155,9 @@
       <c r="AC6" t="n">
         <v>187059</v>
       </c>
+      <c r="AD6" t="n">
+        <v>188380</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1229,6 +1249,9 @@
       <c r="AC7" t="n">
         <v>12007</v>
       </c>
+      <c r="AD7" t="n">
+        <v>12119</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1320,6 +1343,9 @@
       <c r="AC8" t="n">
         <v>119352</v>
       </c>
+      <c r="AD8" t="n">
+        <v>121548</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1411,6 +1437,9 @@
       <c r="AC9" t="n">
         <v>3081</v>
       </c>
+      <c r="AD9" t="n">
+        <v>3090</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1502,6 +1531,9 @@
       <c r="AC10" t="n">
         <v>286880</v>
       </c>
+      <c r="AD10" t="n">
+        <v>289747</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1593,6 +1625,9 @@
       <c r="AC11" t="n">
         <v>34252</v>
       </c>
+      <c r="AD11" t="n">
+        <v>34731</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1684,6 +1719,9 @@
       <c r="AC12" t="n">
         <v>134990</v>
       </c>
+      <c r="AD12" t="n">
+        <v>136404</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1775,6 +1813,9 @@
       <c r="AC13" t="n">
         <v>132382</v>
       </c>
+      <c r="AD13" t="n">
+        <v>133706</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1866,6 +1907,9 @@
       <c r="AC14" t="n">
         <v>15001</v>
       </c>
+      <c r="AD14" t="n">
+        <v>15233</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1957,6 +2001,9 @@
       <c r="AC15" t="n">
         <v>73502</v>
       </c>
+      <c r="AD15" t="n">
+        <v>74318</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2048,6 +2095,9 @@
       <c r="AC16" t="n">
         <v>85314</v>
       </c>
+      <c r="AD16" t="n">
+        <v>86367</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2139,6 +2189,9 @@
       <c r="AC17" t="n">
         <v>602505</v>
       </c>
+      <c r="AD17" t="n">
+        <v>611167</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2230,6 +2283,9 @@
       <c r="AC18" t="n">
         <v>207357</v>
       </c>
+      <c r="AD18" t="n">
+        <v>215149</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2321,6 +2377,9 @@
       <c r="AC19" t="n">
         <v>4205</v>
       </c>
+      <c r="AD19" t="n">
+        <v>4261</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2412,6 +2471,9 @@
       <c r="AC20" t="n">
         <v>132429</v>
       </c>
+      <c r="AD20" t="n">
+        <v>138158</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2503,6 +2565,9 @@
       <c r="AC21" t="n">
         <v>1297252</v>
       </c>
+      <c r="AD21" t="n">
+        <v>1316769</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2594,6 +2659,9 @@
       <c r="AC22" t="n">
         <v>10829</v>
       </c>
+      <c r="AD22" t="n">
+        <v>10915</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2685,6 +2753,9 @@
       <c r="AC23" t="n">
         <v>5406</v>
       </c>
+      <c r="AD23" t="n">
+        <v>5582</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2776,6 +2847,9 @@
       <c r="AC24" t="n">
         <v>2093</v>
       </c>
+      <c r="AD24" t="n">
+        <v>2108</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2867,6 +2941,9 @@
       <c r="AC25" t="n">
         <v>5831</v>
       </c>
+      <c r="AD25" t="n">
+        <v>5916</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2958,6 +3035,9 @@
       <c r="AC26" t="n">
         <v>232988</v>
       </c>
+      <c r="AD26" t="n">
+        <v>235763</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3049,6 +3129,9 @@
       <c r="AC27" t="n">
         <v>26865</v>
       </c>
+      <c r="AD27" t="n">
+        <v>27152</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3140,6 +3223,9 @@
       <c r="AC28" t="n">
         <v>113105</v>
       </c>
+      <c r="AD28" t="n">
+        <v>114075</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3231,6 +3317,9 @@
       <c r="AC29" t="n">
         <v>139616</v>
       </c>
+      <c r="AD29" t="n">
+        <v>141835</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3322,6 +3411,9 @@
       <c r="AC30" t="n">
         <v>3014</v>
       </c>
+      <c r="AD30" t="n">
+        <v>3075</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3413,6 +3505,9 @@
       <c r="AC31" t="n">
         <v>612320</v>
       </c>
+      <c r="AD31" t="n">
+        <v>617403</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3504,6 +3599,9 @@
       <c r="AC32" t="n">
         <v>191269</v>
       </c>
+      <c r="AD32" t="n">
+        <v>193218</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3595,6 +3693,9 @@
       <c r="AC33" t="n">
         <v>25041</v>
       </c>
+      <c r="AD33" t="n">
+        <v>25394</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3686,6 +3787,9 @@
       <c r="AC34" t="n">
         <v>48283</v>
       </c>
+      <c r="AD34" t="n">
+        <v>49129</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3777,6 +3881,9 @@
       <c r="AC35" t="n">
         <v>397570</v>
       </c>
+      <c r="AD35" t="n">
+        <v>401306</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3867,6 +3974,9 @@
       </c>
       <c r="AC36" t="n">
         <v>265288</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>268384</v>
       </c>
     </row>
   </sheetData>

--- a/excelfiles/recovered_cases.xlsx
+++ b/excelfiles/recovered_cases.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N1:N1048576"/>
@@ -688,6 +688,11 @@
           <t>15-10-2020</t>
         </is>
       </c>
+      <c r="AE1" s="7" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -782,6 +787,9 @@
       <c r="AD2" t="n">
         <v>3796</v>
       </c>
+      <c r="AE2" t="n">
+        <v>3817</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -876,6 +884,9 @@
       <c r="AD3" t="n">
         <v>719477</v>
       </c>
+      <c r="AE3" t="n">
+        <v>725099</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -970,6 +981,9 @@
       <c r="AD4" t="n">
         <v>9694</v>
       </c>
+      <c r="AE4" t="n">
+        <v>9889</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1064,6 +1078,9 @@
       <c r="AD5" t="n">
         <v>168072</v>
       </c>
+      <c r="AE5" t="n">
+        <v>169335</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1158,6 +1175,9 @@
       <c r="AD6" t="n">
         <v>188380</v>
       </c>
+      <c r="AE6" t="n">
+        <v>189186</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1252,6 +1272,9 @@
       <c r="AD7" t="n">
         <v>12119</v>
       </c>
+      <c r="AE7" t="n">
+        <v>12232</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1346,6 +1369,9 @@
       <c r="AD8" t="n">
         <v>121548</v>
       </c>
+      <c r="AE8" t="n">
+        <v>123943</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1440,6 +1466,9 @@
       <c r="AD9" t="n">
         <v>3090</v>
       </c>
+      <c r="AE9" t="n">
+        <v>3099</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1534,6 +1563,9 @@
       <c r="AD10" t="n">
         <v>289747</v>
       </c>
+      <c r="AE10" t="n">
+        <v>292502</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1628,6 +1660,9 @@
       <c r="AD11" t="n">
         <v>34731</v>
       </c>
+      <c r="AE11" t="n">
+        <v>35161</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1757,9 @@
       <c r="AD12" t="n">
         <v>136404</v>
       </c>
+      <c r="AE12" t="n">
+        <v>137733</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1816,6 +1854,9 @@
       <c r="AD13" t="n">
         <v>133706</v>
       </c>
+      <c r="AE13" t="n">
+        <v>134719</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1910,6 +1951,9 @@
       <c r="AD14" t="n">
         <v>15233</v>
       </c>
+      <c r="AE14" t="n">
+        <v>15389</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2004,6 +2048,9 @@
       <c r="AD15" t="n">
         <v>74318</v>
       </c>
+      <c r="AE15" t="n">
+        <v>75641</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2098,6 +2145,9 @@
       <c r="AD16" t="n">
         <v>86367</v>
       </c>
+      <c r="AE16" t="n">
+        <v>87240</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2192,6 +2242,9 @@
       <c r="AD17" t="n">
         <v>611167</v>
       </c>
+      <c r="AE17" t="n">
+        <v>620008</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2286,6 +2339,9 @@
       <c r="AD18" t="n">
         <v>215149</v>
       </c>
+      <c r="AE18" t="n">
+        <v>222231</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2380,6 +2436,9 @@
       <c r="AD19" t="n">
         <v>4261</v>
       </c>
+      <c r="AE19" t="n">
+        <v>4310</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2474,6 +2533,9 @@
       <c r="AD20" t="n">
         <v>138158</v>
       </c>
+      <c r="AE20" t="n">
+        <v>139717</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2568,6 +2630,9 @@
       <c r="AD21" t="n">
         <v>1316769</v>
       </c>
+      <c r="AE21" t="n">
+        <v>1330483</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2662,6 +2727,9 @@
       <c r="AD22" t="n">
         <v>10915</v>
       </c>
+      <c r="AE22" t="n">
+        <v>11081</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2756,6 +2824,9 @@
       <c r="AD23" t="n">
         <v>5582</v>
       </c>
+      <c r="AE23" t="n">
+        <v>5646</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2850,6 +2921,9 @@
       <c r="AD24" t="n">
         <v>2108</v>
       </c>
+      <c r="AE24" t="n">
+        <v>2121</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2944,6 +3018,9 @@
       <c r="AD25" t="n">
         <v>5916</v>
       </c>
+      <c r="AE25" t="n">
+        <v>6017</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3038,6 +3115,9 @@
       <c r="AD26" t="n">
         <v>235763</v>
       </c>
+      <c r="AE26" t="n">
+        <v>238535</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3132,6 +3212,9 @@
       <c r="AD27" t="n">
         <v>27152</v>
       </c>
+      <c r="AE27" t="n">
+        <v>27365</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3226,6 +3309,9 @@
       <c r="AD28" t="n">
         <v>114075</v>
       </c>
+      <c r="AE28" t="n">
+        <v>115186</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3320,6 +3406,9 @@
       <c r="AD29" t="n">
         <v>141835</v>
       </c>
+      <c r="AE29" t="n">
+        <v>143984</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3414,6 +3503,9 @@
       <c r="AD30" t="n">
         <v>3075</v>
       </c>
+      <c r="AE30" t="n">
+        <v>3129</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3508,6 +3600,9 @@
       <c r="AD31" t="n">
         <v>617403</v>
       </c>
+      <c r="AE31" t="n">
+        <v>622458</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3602,6 +3697,9 @@
       <c r="AD32" t="n">
         <v>193218</v>
       </c>
+      <c r="AE32" t="n">
+        <v>194653</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3696,6 +3794,9 @@
       <c r="AD33" t="n">
         <v>25394</v>
       </c>
+      <c r="AE33" t="n">
+        <v>25765</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3790,6 +3891,9 @@
       <c r="AD34" t="n">
         <v>49129</v>
       </c>
+      <c r="AE34" t="n">
+        <v>49997</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3884,6 +3988,9 @@
       <c r="AD35" t="n">
         <v>401306</v>
       </c>
+      <c r="AE35" t="n">
+        <v>404545</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3977,6 +4084,9 @@
       </c>
       <c r="AD36" t="n">
         <v>268384</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>271563</v>
       </c>
     </row>
   </sheetData>
